--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_465__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_465__Reeval_Sobol_Modell_1.2.xlsx
@@ -6133,7 +6133,7 @@
                   <c:v>94.41196441650391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.15158081054688</c:v>
+                  <c:v>25.15157699584961</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>98.4642333984375</c:v>
@@ -6145,10 +6145,10 @@
                   <c:v>62.17146301269531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.49306869506836</c:v>
+                  <c:v>51.49306488037109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.00018310546875</c:v>
+                  <c:v>69.00019073486328</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>87.91646575927734</c:v>
@@ -6262,7 +6262,7 @@
                   <c:v>94.3287353515625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22.16007041931152</c:v>
+                  <c:v>22.16006469726562</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>96.82718658447266</c:v>
@@ -6280,7 +6280,7 @@
                   <c:v>42.16622924804688</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.36627197265625</c:v>
+                  <c:v>50.36626434326172</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>56.86711883544922</c:v>
@@ -6343,7 +6343,7 @@
                   <c:v>93.64202880859375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.15900993347168</c:v>
+                  <c:v>12.15900897979736</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>98.52167510986328</c:v>
@@ -6394,13 +6394,13 @@
                   <c:v>0.1635265797376633</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.66839075088501</c:v>
+                  <c:v>4.668393611907959</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>95.10002136230469</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.013678550720215</c:v>
+                  <c:v>6.013681411743164</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>37.7352180480957</c:v>
@@ -6421,7 +6421,7 @@
                   <c:v>0.1635265797376633</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>24.44224548339844</c:v>
+                  <c:v>24.4422435760498</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>95.88697052001953</c:v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>25.15158081054688</v>
+        <v>25.15157699584961</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>51.49306869506836</v>
+        <v>51.49306488037109</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>69.00018310546875</v>
+        <v>69.00019073486328</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>22.16007041931152</v>
+        <v>22.16006469726562</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>50.36627197265625</v>
+        <v>50.36626434326172</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>12.15900993347168</v>
+        <v>12.15900897979736</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>4.66839075088501</v>
+        <v>4.668393611907959</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>6.013678550720215</v>
+        <v>6.013681411743164</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>24.44224548339844</v>
+        <v>24.4422435760498</v>
       </c>
     </row>
     <row r="104" spans="1:6">
